--- a/medicine/Hématologie/Anémie_mégaloblastique_thiamine-sensible/Anémie_mégaloblastique_thiamine-sensible.xlsx
+++ b/medicine/Hématologie/Anémie_mégaloblastique_thiamine-sensible/Anémie_mégaloblastique_thiamine-sensible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_m%C3%A9galoblastique_thiamine-sensible</t>
+          <t>Anémie_mégaloblastique_thiamine-sensible</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’anémie mégaloblastique thiamine-sensible est une maladie génétique associant une anémie mégaloblastique, un diabète et une surdité.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9mie_m%C3%A9galoblastique_thiamine-sensible</t>
+          <t>Anémie_mégaloblastique_thiamine-sensible</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 249270 249270
 (en) Judith C Fleming, Ellis J Neufeld, Thiamine-Responsive Megaloblastic Anemia Syndrome In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. www.genetests.org.
